--- a/srcript/python/PD/L2模块PD探针.xlsx
+++ b/srcript/python/PD/L2模块PD探针.xlsx
@@ -4,20 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="10350" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="10350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ra_l2_r_0" sheetId="3" r:id="rId1"/>
-    <sheet name="ra_l2_r_1" sheetId="1" r:id="rId2"/>
-    <sheet name="tt_l2_r_0" sheetId="2" r:id="rId3"/>
-    <sheet name="tt_l2_r_1" sheetId="4" r:id="rId4"/>
+    <sheet name="tt_l2_r_0" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="66">
   <si>
     <t>CSR节点号</t>
   </si>
@@ -130,36 +128,15 @@
     <t>ra_l2_pd[383：320]</t>
   </si>
   <si>
-    <t>PROBE_RA_L2_6</t>
-  </si>
-  <si>
-    <t>0x016</t>
-  </si>
-  <si>
     <t>63:59</t>
   </si>
   <si>
     <t>5'h0</t>
   </si>
   <si>
-    <t>probe_ra_l2_pd_6</t>
-  </si>
-  <si>
-    <t>58:0</t>
-  </si>
-  <si>
-    <t>59'h0</t>
-  </si>
-  <si>
-    <t>ra_l2_pd[442：384]</t>
-  </si>
-  <si>
     <t>PROBE_TT_L2_0</t>
   </si>
   <si>
-    <t>0x017</t>
-  </si>
-  <si>
     <t>probe_tt_l2_pd_0</t>
   </si>
   <si>
@@ -167,9 +144,6 @@
   </si>
   <si>
     <t>PROBE_TT_L2_1</t>
-  </si>
-  <si>
-    <t>0x018</t>
   </si>
   <si>
     <t>63:58</t>
@@ -210,15 +184,59 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>P1_L2_ADDR_PREFIX</t>
+    <t>PROBE_RA_L2_7</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROBE_RA_L2_6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x016</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x017</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3'h0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>probe_ra_l2_pd_7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>probe_ra_l2_pd_6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ra_l2_pd[450:448]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ra_l2_pd[447：384]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x018</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x019</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -246,6 +264,26 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -390,9 +428,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -417,10 +452,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -765,23 +803,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="27.5" style="13" customWidth="1"/>
-    <col min="2" max="2" width="43.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="13" customWidth="1"/>
-    <col min="4" max="4" width="34.375" style="13" customWidth="1"/>
-    <col min="5" max="6" width="9" style="13"/>
-    <col min="7" max="7" width="12.125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="24.375" style="14" customWidth="1"/>
-    <col min="9" max="9" width="19" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="27.5" style="12" customWidth="1"/>
+    <col min="2" max="2" width="43.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="12" customWidth="1"/>
+    <col min="4" max="4" width="34.375" style="12" customWidth="1"/>
+    <col min="5" max="6" width="9" style="12"/>
+    <col min="7" max="7" width="12.125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="24.375" style="13" customWidth="1"/>
+    <col min="9" max="9" width="19" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -789,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -823,7 +861,7 @@
       <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -850,8 +888,8 @@
       <c r="H3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="16" t="s">
-        <v>59</v>
+      <c r="I3" s="15" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5">
@@ -883,7 +921,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="10" t="s">
@@ -975,50 +1013,74 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5">
-      <c r="A9" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>38</v>
+      <c r="A9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="10" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="8" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="16.5">
-      <c r="A10" s="19"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="C10" s="8"/>
       <c r="D10" s="10" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>44</v>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.5">
+      <c r="A11" s="18"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1028,276 +1090,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:I10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="27.5" style="13" customWidth="1"/>
-    <col min="2" max="2" width="43.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="13" customWidth="1"/>
-    <col min="4" max="4" width="34.375" style="13" customWidth="1"/>
-    <col min="5" max="6" width="9" style="13"/>
-    <col min="7" max="7" width="12.125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="24.375" style="14" customWidth="1"/>
-    <col min="9" max="9" width="19" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="13"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="16.5">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="16.5">
-      <c r="A3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="16.5">
-      <c r="A4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="16.5">
-      <c r="A5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="16.5">
-      <c r="A6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="16.5">
-      <c r="A7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5">
-      <c r="A8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5">
-      <c r="A9" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5">
-      <c r="A10" s="19"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A9:A10"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1315,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1349,20 +1145,20 @@
       <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>58</v>
+      <c r="I2" s="11" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="16.5">
       <c r="A3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="10" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>14</v>
@@ -1374,28 +1170,28 @@
         <v>16</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="16.5">
-      <c r="A4" s="18" t="s">
-        <v>49</v>
+      <c r="A4" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>16</v>
@@ -1403,164 +1199,23 @@
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="16.5">
-      <c r="A5" s="19"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="21"/>
       <c r="C5" s="8"/>
       <c r="D5" s="10" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="18.25" customWidth="1"/>
-    <col min="2" max="2" width="43.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="26.375" customWidth="1"/>
-    <col min="5" max="5" width="8.875" customWidth="1"/>
-    <col min="8" max="8" width="20.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="16.5">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="16.5">
-      <c r="A3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="16.5">
-      <c r="A4" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="16.5">
-      <c r="A5" s="19"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
